--- a/data/trans_orig/Q5409A_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q5409A_2023-Clase-trans_orig.xlsx
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>1539</v>
+        <v>1580</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03072779313088031</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1501849702710074</v>
+        <v>0.1541769232788922</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>3390</v>
+        <v>3144</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09297083266990949</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4761799835900205</v>
+        <v>0.4415860466622069</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -786,16 +786,16 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>3350</v>
+        <v>3507</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.05624651882439887</v>
+        <v>0.05624651882439889</v>
       </c>
       <c r="V4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1929363612531557</v>
+        <v>0.201961336016038</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>5167</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2372</v>
+        <v>2683</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7754</v>
+        <v>7921</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.504338186103916</v>
+        <v>0.5043381861039161</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2315351816597481</v>
+        <v>0.2618750708847075</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7569036247624252</v>
+        <v>0.7731834064598594</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>7</v>
@@ -833,19 +833,19 @@
         <v>4354</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2050</v>
+        <v>2042</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6025</v>
+        <v>6093</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6116584358488397</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2879679421564595</v>
+        <v>0.2868579423778422</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8463237922216412</v>
+        <v>0.8559202838192462</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>14</v>
@@ -854,19 +854,19 @@
         <v>9522</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>6032</v>
+        <v>6022</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>12553</v>
+        <v>12578</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.5483379013312443</v>
+        <v>0.5483379013312445</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3473719318003391</v>
+        <v>0.3467918976809934</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7229100083981974</v>
+        <v>0.7243370485340156</v>
       </c>
     </row>
     <row r="6">
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1937</v>
+        <v>2365</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05727345085225351</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2721375851261162</v>
+        <v>0.3321651675519379</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1</v>
@@ -967,16 +967,16 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1835</v>
+        <v>2057</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.02348126782760054</v>
+        <v>0.02348126782760055</v>
       </c>
       <c r="V7" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1056586596810999</v>
+        <v>0.1184468028830172</v>
       </c>
     </row>
     <row r="8">
@@ -993,19 +993,19 @@
         <v>4763</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2182</v>
+        <v>2151</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7555</v>
+        <v>7365</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.4649340207652033</v>
+        <v>0.4649340207652036</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2130238549019897</v>
+        <v>0.2099518572992033</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7374129074077459</v>
+        <v>0.7188446741893968</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
@@ -1014,19 +1014,19 @@
         <v>1695</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>3971</v>
+        <v>3992</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2380972806289972</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.06114107033877968</v>
+        <v>0.06003819258724345</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5578649184723642</v>
+        <v>0.5607718506157081</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>10</v>
@@ -1035,19 +1035,19 @@
         <v>6459</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3779</v>
+        <v>3763</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>10216</v>
+        <v>10126</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.3719343120167561</v>
+        <v>0.3719343120167563</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2176440858896142</v>
+        <v>0.2166892720375571</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5882984200683125</v>
+        <v>0.5831160207045727</v>
       </c>
     </row>
     <row r="9">
@@ -1186,19 +1186,19 @@
         <v>2098</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4510</v>
+        <v>4269</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3415173479986718</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08966466101561697</v>
+        <v>0.09080609256141058</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.73407461831566</v>
+        <v>0.694745541012085</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>8</v>
@@ -1207,19 +1207,19 @@
         <v>4586</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2630</v>
+        <v>2340</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6152</v>
+        <v>5854</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.7302180852728516</v>
+        <v>0.7302180852728514</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4187531466686342</v>
+        <v>0.3726600763876032</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9795453854416143</v>
+        <v>0.9321170801128663</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>11</v>
@@ -1228,19 +1228,19 @@
         <v>6684</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>3920</v>
+        <v>3741</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>9347</v>
+        <v>9313</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5379944668131603</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3155489362675739</v>
+        <v>0.3011052954479285</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7523628940383359</v>
+        <v>0.7496221623550625</v>
       </c>
     </row>
     <row r="12">
@@ -1320,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>2564</v>
+        <v>2573</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1020171927411816</v>
@@ -1329,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4082889601468959</v>
+        <v>0.4097482024708154</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>3432</v>
+        <v>3018</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05156677664130888</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2762859791754826</v>
+        <v>0.2429429517606916</v>
       </c>
     </row>
     <row r="14">
@@ -1367,19 +1367,19 @@
         <v>4046</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1631</v>
+        <v>1882</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5590</v>
+        <v>5586</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6584826520013283</v>
+        <v>0.6584826520013282</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2654444268176929</v>
+        <v>0.3062778441587338</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9097689245411086</v>
+        <v>0.9092583421003873</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3050</v>
+        <v>3233</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1677647219859668</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4856785649003388</v>
+        <v>0.5148394441086144</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8</v>
@@ -1409,19 +1409,19 @@
         <v>5099</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2552</v>
+        <v>2741</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>8075</v>
+        <v>8304</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.4104387565455309</v>
+        <v>0.410438756545531</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2054388947762021</v>
+        <v>0.2206322476415101</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6500054639740883</v>
+        <v>0.6684083197751219</v>
       </c>
     </row>
     <row r="15">
@@ -1516,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2211</v>
+        <v>2681</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03172339032994832</v>
@@ -1525,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1469874489053009</v>
+        <v>0.1782182724145418</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -1550,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2086</v>
+        <v>2251</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02039852874368111</v>
@@ -1559,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0891899766770059</v>
+        <v>0.09623547803106072</v>
       </c>
     </row>
     <row r="17">
@@ -1576,19 +1576,19 @@
         <v>9708</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6314</v>
+        <v>6292</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>12414</v>
+        <v>12210</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.645418495255062</v>
+        <v>0.6454184952550621</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4197602770704779</v>
+        <v>0.4183124162661618</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8253238836054068</v>
+        <v>0.811801740496284</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>9</v>
@@ -1597,19 +1597,19 @@
         <v>4789</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2225</v>
+        <v>2412</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>6792</v>
+        <v>7053</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5734979247639289</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2664592673628</v>
+        <v>0.2888769796128717</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8132575655196169</v>
+        <v>0.8445828218933522</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>23</v>
@@ -1618,19 +1618,19 @@
         <v>14497</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>10561</v>
+        <v>10642</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>18090</v>
+        <v>18255</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.6197437329567669</v>
+        <v>0.619743732956767</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4514853835245591</v>
+        <v>0.4549415768764482</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7733587904713161</v>
+        <v>0.7804137959572507</v>
       </c>
     </row>
     <row r="18">
@@ -1650,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3549</v>
+        <v>2808</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.04520571112633055</v>
@@ -1659,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2359455808408633</v>
+        <v>0.1867184828194219</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1</v>
@@ -1671,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>2363</v>
+        <v>2678</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.06878418093737075</v>
@@ -1680,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2829969053036793</v>
+        <v>0.3206566870795319</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>2</v>
@@ -1692,16 +1692,16 @@
         <v>0</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>4160</v>
+        <v>4096</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.05362293590113427</v>
+        <v>0.05362293590113428</v>
       </c>
       <c r="V18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1778326504574687</v>
+        <v>0.1751194928498818</v>
       </c>
     </row>
     <row r="19">
@@ -1718,19 +1718,19 @@
         <v>1847</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4484</v>
+        <v>4549</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1228295078679684</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03258937544963793</v>
+        <v>0.03191916063499809</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2981333107274715</v>
+        <v>0.3024297496141865</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -1739,19 +1739,19 @@
         <v>2501</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>819</v>
+        <v>430</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5461</v>
+        <v>5332</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2994367187965038</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09810737027694881</v>
+        <v>0.05150882013544385</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6539592608945739</v>
+        <v>0.6385423307473482</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>6</v>
@@ -1760,19 +1760,19 @@
         <v>4348</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1612</v>
+        <v>1657</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>8678</v>
+        <v>8656</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.185876117896097</v>
+        <v>0.1858761178960971</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06889476836284962</v>
+        <v>0.07082307975357878</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.370978726723329</v>
+        <v>0.3700337620464654</v>
       </c>
     </row>
     <row r="20">
@@ -1789,19 +1789,19 @@
         <v>2329</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>588</v>
+        <v>784</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5406</v>
+        <v>5607</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1548228954206906</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03910042195796393</v>
+        <v>0.052155021945752</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3594001300737767</v>
+        <v>0.372773993435171</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2693</v>
+        <v>2537</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0582811755021967</v>
@@ -1822,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3224692628700209</v>
+        <v>0.3037578598471017</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5</v>
@@ -1831,19 +1831,19 @@
         <v>2815</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>6222</v>
+        <v>6257</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1203586845023206</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0407361472988871</v>
+        <v>0.04050710308993877</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2659717488555167</v>
+        <v>0.2674782911496859</v>
       </c>
     </row>
     <row r="21">
@@ -1938,16 +1938,16 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2265</v>
+        <v>2573</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.02663244396413394</v>
+        <v>0.02663244396413395</v>
       </c>
       <c r="H22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08756683868668774</v>
+        <v>0.09944471099643658</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2</v>
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>3711</v>
+        <v>3619</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06295547157806007</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2437582055668399</v>
+        <v>0.2377026190803392</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4</v>
@@ -1977,19 +1977,19 @@
         <v>1647</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>363</v>
+        <v>592</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4080</v>
+        <v>4208</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04008836668704405</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.008843496820561033</v>
+        <v>0.01440414042006388</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09928192184005752</v>
+        <v>0.102392940350296</v>
       </c>
     </row>
     <row r="23">
@@ -2006,19 +2006,19 @@
         <v>12482</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>8549</v>
+        <v>8454</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>16614</v>
+        <v>16793</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4824725830427948</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.330479068743714</v>
+        <v>0.3268007877166091</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6422272394564339</v>
+        <v>0.6491434153184495</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>21</v>
@@ -2027,19 +2027,19 @@
         <v>9785</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>6360</v>
+        <v>6795</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>12127</v>
+        <v>12213</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6427835321662321</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4177983659258538</v>
+        <v>0.4463617165320732</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7966142155014625</v>
+        <v>0.802283672297855</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>40</v>
@@ -2048,19 +2048,19 @@
         <v>22267</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>17245</v>
+        <v>17789</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>27318</v>
+        <v>27377</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.5418600263465109</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.419660709230114</v>
+        <v>0.4328853919473251</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6647791512912257</v>
+        <v>0.666218374871501</v>
       </c>
     </row>
     <row r="24">
@@ -2124,19 +2124,19 @@
         <v>2169</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>6587</v>
+        <v>6111</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.08383146814156585</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01930144113257145</v>
+        <v>0.01853918716405344</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2546089910450224</v>
+        <v>0.2362234634491531</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2</v>
@@ -2148,16 +2148,16 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>3774</v>
+        <v>3809</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.07582929973090577</v>
+        <v>0.07582929973090578</v>
       </c>
       <c r="O25" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2479322732418084</v>
+        <v>0.2501988225972372</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>5</v>
@@ -2166,19 +2166,19 @@
         <v>3323</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1017</v>
+        <v>1145</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>7156</v>
+        <v>6856</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.08086705226483783</v>
+        <v>0.08086705226483781</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02475040244860198</v>
+        <v>0.02786036225586458</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1741342967854655</v>
+        <v>0.1668311671500594</v>
       </c>
     </row>
     <row r="26">
@@ -2195,19 +2195,19 @@
         <v>10531</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>6325</v>
+        <v>6735</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>14706</v>
+        <v>15168</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4070635048515054</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2444855318684033</v>
+        <v>0.2603300377371112</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5684762429535113</v>
+        <v>0.5863061127286139</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>6</v>
@@ -2216,19 +2216,19 @@
         <v>3325</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1457</v>
+        <v>1280</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>6619</v>
+        <v>5932</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.218431696524802</v>
+        <v>0.2184316965248021</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.09567988702865013</v>
+        <v>0.08408166035108386</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4348112082314392</v>
+        <v>0.3896547623261095</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>21</v>
@@ -2237,19 +2237,19 @@
         <v>13856</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>9320</v>
+        <v>9099</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>18717</v>
+        <v>18655</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3371845547016075</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2267992102127036</v>
+        <v>0.221429910411083</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4554902781815745</v>
+        <v>0.4539734580712745</v>
       </c>
     </row>
     <row r="27">
@@ -2344,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1897</v>
+        <v>1850</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02833785556335901</v>
@@ -2353,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1571088966895668</v>
+        <v>0.1532131600655726</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>11</v>
@@ -2362,19 +2362,19 @@
         <v>6022</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>3203</v>
+        <v>3232</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>10423</v>
+        <v>9891</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.1551823576235224</v>
+        <v>0.1551823576235225</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.08254229836292355</v>
+        <v>0.08330151908256588</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2686044792866369</v>
+        <v>0.2548993469091301</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>12</v>
@@ -2383,19 +2383,19 @@
         <v>6364</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3595</v>
+        <v>3106</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>10609</v>
+        <v>10421</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1250782688715769</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.07066090847086594</v>
+        <v>0.06104487029615129</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.208521728032856</v>
+        <v>0.2048276862119734</v>
       </c>
     </row>
     <row r="29">
@@ -2412,19 +2412,19 @@
         <v>6614</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3571</v>
+        <v>3883</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>9216</v>
+        <v>9361</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.5477455046955134</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2957604803134193</v>
+        <v>0.3216003473971193</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7632607784965577</v>
+        <v>0.7752575204791341</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>43</v>
@@ -2433,19 +2433,19 @@
         <v>22278</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>17470</v>
+        <v>17780</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>26399</v>
+        <v>26599</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.5741225283518867</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.4502044718541241</v>
+        <v>0.4581952191163751</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6803078370354944</v>
+        <v>0.6854808240444163</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>54</v>
@@ -2454,19 +2454,19 @@
         <v>28892</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>23685</v>
+        <v>23448</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>34181</v>
+        <v>34276</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.5678624520516382</v>
+        <v>0.5678624520516381</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4655191971388459</v>
+        <v>0.4608649715387867</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.671812228328769</v>
+        <v>0.6736756148346449</v>
       </c>
     </row>
     <row r="30">
@@ -2496,19 +2496,19 @@
         <v>1548</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>4158</v>
+        <v>4401</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.03988679833182311</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01032366641179727</v>
+        <v>0.01068371127370302</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1071632343689743</v>
+        <v>0.1134212662739673</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>3</v>
@@ -2517,19 +2517,19 @@
         <v>1548</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>4376</v>
+        <v>4287</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.03042043835949551</v>
+        <v>0.0304204383594955</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.008023140505568172</v>
+        <v>0.007978219106209676</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.08601094080915402</v>
+        <v>0.08425487907570442</v>
       </c>
     </row>
     <row r="31">
@@ -2546,19 +2546,19 @@
         <v>1802</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>4685</v>
+        <v>5105</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1492412339600361</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.0429117802682385</v>
+        <v>0.04206799520223053</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3879920597169047</v>
+        <v>0.4227537701473552</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>9</v>
@@ -2567,19 +2567,19 @@
         <v>4410</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>2229</v>
+        <v>2085</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>8107</v>
+        <v>7877</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1136508662551728</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.05743301194305708</v>
+        <v>0.05374221427571988</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2089165699553625</v>
+        <v>0.2030045659158131</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>12</v>
@@ -2588,19 +2588,19 @@
         <v>6212</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>3392</v>
+        <v>3148</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>10422</v>
+        <v>10437</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1220975515328161</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.06666592827374268</v>
+        <v>0.06186404756978087</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2048473540829787</v>
+        <v>0.2051409295392845</v>
       </c>
     </row>
     <row r="32">
@@ -2617,19 +2617,19 @@
         <v>3317</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1281</v>
+        <v>1158</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>6277</v>
+        <v>6095</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2746754057810915</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1060728051861452</v>
+        <v>0.09588038238184732</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5198161484990796</v>
+        <v>0.5047933863295432</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>9</v>
@@ -2638,19 +2638,19 @@
         <v>4546</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2305</v>
+        <v>2059</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>8504</v>
+        <v>8296</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1171574494375951</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.0593991295120356</v>
+        <v>0.05307001607429204</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2191464675351749</v>
+        <v>0.213802644290959</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>14</v>
@@ -2659,19 +2659,19 @@
         <v>7863</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>4418</v>
+        <v>4772</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>12523</v>
+        <v>12714</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1545412891844732</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.08683065863950691</v>
+        <v>0.09378298356305312</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.246138213338104</v>
+        <v>0.2498940197137346</v>
       </c>
     </row>
     <row r="33">
@@ -2776,19 +2776,19 @@
         <v>5387</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>2441</v>
+        <v>2901</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>9696</v>
+        <v>10519</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.08087163686895008</v>
+        <v>0.0808716368689501</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.03664293256624242</v>
+        <v>0.04354880828223124</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1455521169018938</v>
+        <v>0.157899896325693</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>9</v>
@@ -2797,19 +2797,19 @@
         <v>5387</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>2843</v>
+        <v>2516</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>9875</v>
+        <v>10107</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.07946339860815026</v>
+        <v>0.07946339860815027</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.04193649168423718</v>
+        <v>0.03711021441020004</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.145654962025767</v>
+        <v>0.1490722530069427</v>
       </c>
     </row>
     <row r="35">
@@ -2839,19 +2839,19 @@
         <v>36845</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>30770</v>
+        <v>29828</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>43578</v>
+        <v>42647</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.5530924161628575</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.461898526394352</v>
+        <v>0.4477611181976483</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.6541723164968384</v>
+        <v>0.6401897891255973</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>67</v>
@@ -2860,19 +2860,19 @@
         <v>36845</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>30583</v>
+        <v>29810</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>43745</v>
+        <v>43419</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.5434612780734812</v>
+        <v>0.5434612780734813</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.4510939095771258</v>
+        <v>0.4396890520646326</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.6452369184518291</v>
+        <v>0.6404203494241359</v>
       </c>
     </row>
     <row r="36">
@@ -2902,19 +2902,19 @@
         <v>2498</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>668</v>
+        <v>705</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>6128</v>
+        <v>6322</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.03750286880643713</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01003104900675445</v>
+        <v>0.01058334258133354</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.09198329077991786</v>
+        <v>0.09490757761219089</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>4</v>
@@ -2923,19 +2923,19 @@
         <v>2498</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>613</v>
+        <v>682</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>6656</v>
+        <v>6944</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.03684982186949232</v>
+        <v>0.03684982186949233</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.009048871874573825</v>
+        <v>0.01005877406888163</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.09817161574255898</v>
+        <v>0.1024167030829077</v>
       </c>
     </row>
     <row r="37">
@@ -2965,19 +2965,19 @@
         <v>12198</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>7748</v>
+        <v>7894</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>17819</v>
+        <v>18134</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1831149458455534</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1163128385555418</v>
+        <v>0.1185070779122296</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2674852728473334</v>
+        <v>0.2722214491607194</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>21</v>
@@ -2986,19 +2986,19 @@
         <v>13379</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>8745</v>
+        <v>8547</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>19021</v>
+        <v>19223</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1973395718389652</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1289865828523613</v>
+        <v>0.1260744840365126</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2805644221080967</v>
+        <v>0.2835351586605207</v>
       </c>
     </row>
     <row r="38">
@@ -3028,19 +3028,19 @@
         <v>9687</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>5839</v>
+        <v>5693</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>15880</v>
+        <v>16387</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1454181323162019</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.08765071900895986</v>
+        <v>0.08545425207609526</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2383814786979051</v>
+        <v>0.2459968327661296</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>16</v>
@@ -3049,19 +3049,19 @@
         <v>9687</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>5563</v>
+        <v>5680</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>15390</v>
+        <v>15515</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1428859296099111</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.08205421778375412</v>
+        <v>0.08378127829320912</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2270055574745505</v>
+        <v>0.2288375938672815</v>
       </c>
     </row>
     <row r="39">
@@ -3153,19 +3153,19 @@
         <v>1823</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>4343</v>
+        <v>4563</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.02583966407165227</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.009438745260232717</v>
+        <v>0.00958545809638512</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.06154806471164927</v>
+        <v>0.06467101984497976</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>23</v>
@@ -3174,19 +3174,19 @@
         <v>13029</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>8540</v>
+        <v>8373</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>19569</v>
+        <v>19347</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.0915026813450539</v>
+        <v>0.09150268134505392</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.059978371040984</v>
+        <v>0.05880509249522831</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1374288073911747</v>
+        <v>0.1358735138953461</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>28</v>
@@ -3195,19 +3195,19 @@
         <v>14852</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>9943</v>
+        <v>9619</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>21698</v>
+        <v>21027</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.06974669341759518</v>
+        <v>0.06974669341759519</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.04669309237348544</v>
+        <v>0.04517089952223294</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.101891988329107</v>
+        <v>0.09874169367745936</v>
       </c>
     </row>
     <row r="41">
@@ -3224,19 +3224,19 @@
         <v>36069</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>28680</v>
+        <v>28918</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>42962</v>
+        <v>43930</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.5112093982608789</v>
+        <v>0.5112093982608787</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.4064785472510161</v>
+        <v>0.409856795946536</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.608909771216086</v>
+        <v>0.6226267647768885</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>155</v>
@@ -3245,19 +3245,19 @@
         <v>82637</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>73258</v>
+        <v>72784</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>91146</v>
+        <v>91070</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.5803481444389563</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.5144792884419398</v>
+        <v>0.5111510979333417</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.6401061108337108</v>
+        <v>0.6395711826517592</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>209</v>
@@ -3266,19 +3266,19 @@
         <v>118706</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>107407</v>
+        <v>106313</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>130507</v>
+        <v>129327</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.5574405506421783</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.5043796399552881</v>
+        <v>0.4992425923678799</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.6128563884313063</v>
+        <v>0.6073158774726795</v>
       </c>
     </row>
     <row r="42">
@@ -3298,16 +3298,16 @@
         <v>0</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>3756</v>
+        <v>2889</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.009637072152878902</v>
+        <v>0.009637072152878901</v>
       </c>
       <c r="H42" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.05322902968306244</v>
+        <v>0.04094011478986417</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>8</v>
@@ -3316,19 +3316,19 @@
         <v>4620</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>2172</v>
+        <v>2239</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>9057</v>
+        <v>9594</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.03244875988732174</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.0152531407575883</v>
+        <v>0.01572738596031448</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.06360830800467127</v>
+        <v>0.06737771632694968</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>9</v>
@@ -3337,19 +3337,19 @@
         <v>5300</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>2439</v>
+        <v>2435</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>9699</v>
+        <v>10077</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.02489061188310977</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.0114523047687564</v>
+        <v>0.01143644867507766</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.04554415700451082</v>
+        <v>0.04732018828153267</v>
       </c>
     </row>
     <row r="43">
@@ -3366,19 +3366,19 @@
         <v>6999</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>3924</v>
+        <v>3837</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>12574</v>
+        <v>12090</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>0.09919666981319537</v>
+        <v>0.09919666981319535</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.05561607182275036</v>
+        <v>0.05438530124967519</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1782091510613511</v>
+        <v>0.1713571452561369</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>35</v>
@@ -3387,19 +3387,19 @@
         <v>21312</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>15191</v>
+        <v>15397</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>28915</v>
+        <v>28708</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1496689769118882</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1066862528842912</v>
+        <v>0.1081339777398362</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.2030668238302204</v>
+        <v>0.2016124818939539</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>46</v>
@@ -3408,19 +3408,19 @@
         <v>28311</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>20991</v>
+        <v>21227</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>36306</v>
+        <v>37013</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1329460946943671</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.09857565826760779</v>
+        <v>0.09968253642541884</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1704911072872866</v>
+        <v>0.173812993596607</v>
       </c>
     </row>
     <row r="44">
@@ -3437,19 +3437,19 @@
         <v>24985</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>18743</v>
+        <v>18159</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>32517</v>
+        <v>31992</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.3541171957013949</v>
+        <v>0.3541171957013948</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.265653509148398</v>
+        <v>0.2573690521473609</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.4608640307274777</v>
+        <v>0.4534273526592315</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>37</v>
@@ -3458,19 +3458,19 @@
         <v>20794</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>14717</v>
+        <v>14756</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>28654</v>
+        <v>28818</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.14603143741678</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.10335357400476</v>
+        <v>0.103628359287321</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.2012342636046536</v>
+        <v>0.2023835096589159</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>74</v>
@@ -3479,19 +3479,19 @@
         <v>45779</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>37173</v>
+        <v>36901</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>56461</v>
+        <v>56326</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.2149760493627496</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1745643682471689</v>
+        <v>0.1732882119974886</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.2651393317763352</v>
+        <v>0.264505626176861</v>
       </c>
     </row>
     <row r="45">
